--- a/文档/原材料，成品库仓库列层统计清单v2.xlsx
+++ b/文档/原材料，成品库仓库列层统计清单v2.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B94A48B0-1581-4271-ABA7-D1AC140A13F0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{136908F6-FBA8-467C-A225-881ABE892404}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原材料库统计" sheetId="1" r:id="rId1"/>
     <sheet name="成品库统计" sheetId="2" r:id="rId2"/>
     <sheet name="原材料库货位分布" sheetId="3" r:id="rId3"/>
     <sheet name="成品库货位分布" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>原材料库仓库列层统计清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +250,30 @@
   </si>
   <si>
     <t>2排*32列*4层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温库：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常温库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟感货位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -510,18 +535,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -529,6 +542,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1117,10 +1142,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1233,12 +1258,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <f>C3*D3*E3*3</f>
+        <v>2106</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1258,14 +1293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -1348,7 +1383,7 @@
       <c r="BW2" s="4"/>
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="24"/>
       <c r="C3" s="4"/>
       <c r="D3" s="9">
@@ -1427,7 +1462,7 @@
       <c r="BW3" s="4"/>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="24"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9">
@@ -1506,7 +1541,7 @@
       <c r="BW4" s="4"/>
     </row>
     <row r="5" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="24"/>
       <c r="C5" s="9"/>
       <c r="D5" s="4"/>
@@ -1723,11 +1758,11 @@
       <c r="BW5" s="9"/>
     </row>
     <row r="6" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="BW6" s="4"/>
     </row>
     <row r="7" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="24" t="s">
         <v>25</v>
       </c>
@@ -1808,7 +1843,7 @@
       <c r="BW7" s="4"/>
     </row>
     <row r="8" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9">
@@ -1887,7 +1922,7 @@
       <c r="BW8" s="4"/>
     </row>
     <row r="9" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="24"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9">
@@ -1966,7 +2001,7 @@
       <c r="BW9" s="4"/>
     </row>
     <row r="10" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9"/>
       <c r="D10" s="4"/>
@@ -2183,11 +2218,11 @@
       <c r="BW10" s="9"/>
     </row>
     <row r="11" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="BW11" s="4"/>
     </row>
     <row r="12" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="24" t="s">
         <v>26</v>
       </c>
@@ -2265,14 +2300,14 @@
       <c r="BR12" s="6"/>
       <c r="BS12" s="6"/>
       <c r="BT12" s="6"/>
-      <c r="BU12" s="25" t="s">
+      <c r="BU12" s="21" t="s">
         <v>29</v>
       </c>
       <c r="BV12" s="12"/>
       <c r="BW12" s="4"/>
     </row>
     <row r="13" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="D13" s="9">
         <v>2</v>
@@ -2345,12 +2380,12 @@
       <c r="BR13" s="6"/>
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
-      <c r="BU13" s="26"/>
+      <c r="BU13" s="22"/>
       <c r="BV13" s="12"/>
       <c r="BW13" s="4"/>
     </row>
     <row r="14" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="9" t="s">
         <v>18</v>
@@ -2426,12 +2461,12 @@
       <c r="BR14" s="6"/>
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
-      <c r="BU14" s="26"/>
+      <c r="BU14" s="22"/>
       <c r="BV14" s="12"/>
       <c r="BW14" s="4"/>
     </row>
     <row r="15" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="24"/>
       <c r="C15" s="9"/>
       <c r="D15" s="4"/>
@@ -2639,16 +2674,16 @@
       <c r="BT15" s="9">
         <v>68</v>
       </c>
-      <c r="BU15" s="27"/>
+      <c r="BU15" s="23"/>
       <c r="BV15" s="13"/>
       <c r="BW15" s="4"/>
     </row>
     <row r="16" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="BW16" s="4"/>
     </row>
     <row r="17" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="24" t="s">
         <v>27</v>
       </c>
@@ -2729,7 +2764,7 @@
       <c r="BW17" s="4"/>
     </row>
     <row r="18" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="24"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9">
@@ -2808,7 +2843,7 @@
       <c r="BW18" s="4"/>
     </row>
     <row r="19" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="24"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9">
@@ -2887,7 +2922,7 @@
       <c r="BW19" s="4"/>
     </row>
     <row r="20" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="24"/>
       <c r="C20" s="9"/>
       <c r="D20" s="4"/>
@@ -3100,7 +3135,7 @@
       <c r="BW20" s="4"/>
     </row>
     <row r="22" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -3183,7 +3218,7 @@
       <c r="BW22" s="4"/>
     </row>
     <row r="23" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="24"/>
       <c r="C23" s="4"/>
       <c r="D23" s="9">
@@ -3262,7 +3297,7 @@
       <c r="BW23" s="4"/>
     </row>
     <row r="24" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="24"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9">
@@ -3341,7 +3376,7 @@
       <c r="BW24" s="4"/>
     </row>
     <row r="25" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="24"/>
       <c r="C25" s="9"/>
       <c r="D25" s="4"/>
@@ -3558,11 +3593,11 @@
       <c r="BW25" s="9"/>
     </row>
     <row r="26" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="BW26" s="4"/>
     </row>
     <row r="27" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="24" t="s">
         <v>25</v>
       </c>
@@ -3643,7 +3678,7 @@
       <c r="BW27" s="4"/>
     </row>
     <row r="28" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="24"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
@@ -3722,7 +3757,7 @@
       <c r="BW28" s="4"/>
     </row>
     <row r="29" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="24"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9">
@@ -3801,7 +3836,7 @@
       <c r="BW29" s="4"/>
     </row>
     <row r="30" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="24"/>
       <c r="C30" s="9"/>
       <c r="D30" s="4"/>
@@ -4018,11 +4053,11 @@
       <c r="BW30" s="9"/>
     </row>
     <row r="31" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="BW31" s="4"/>
     </row>
     <row r="32" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="24" t="s">
         <v>26</v>
       </c>
@@ -4100,14 +4135,14 @@
       <c r="BR32" s="6"/>
       <c r="BS32" s="6"/>
       <c r="BT32" s="6"/>
-      <c r="BU32" s="25" t="s">
+      <c r="BU32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="BV32" s="12"/>
       <c r="BW32" s="4"/>
     </row>
     <row r="33" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="24"/>
       <c r="D33" s="9">
         <v>2</v>
@@ -4180,12 +4215,12 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="6"/>
       <c r="BT33" s="6"/>
-      <c r="BU33" s="26"/>
+      <c r="BU33" s="22"/>
       <c r="BV33" s="12"/>
       <c r="BW33" s="4"/>
     </row>
     <row r="34" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="24"/>
       <c r="C34" s="9" t="s">
         <v>20</v>
@@ -4261,12 +4296,12 @@
       <c r="BR34" s="6"/>
       <c r="BS34" s="6"/>
       <c r="BT34" s="6"/>
-      <c r="BU34" s="26"/>
+      <c r="BU34" s="22"/>
       <c r="BV34" s="12"/>
       <c r="BW34" s="4"/>
     </row>
     <row r="35" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="24"/>
       <c r="C35" s="9"/>
       <c r="D35" s="4"/>
@@ -4474,16 +4509,16 @@
       <c r="BT35" s="9">
         <v>68</v>
       </c>
-      <c r="BU35" s="27"/>
+      <c r="BU35" s="23"/>
       <c r="BV35" s="13"/>
       <c r="BW35" s="4"/>
     </row>
     <row r="36" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="BW36" s="4"/>
     </row>
     <row r="37" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="24" t="s">
         <v>27</v>
       </c>
@@ -4564,7 +4599,7 @@
       <c r="BW37" s="4"/>
     </row>
     <row r="38" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="24"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9">
@@ -4643,7 +4678,7 @@
       <c r="BW38" s="4"/>
     </row>
     <row r="39" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="24"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9">
@@ -4722,7 +4757,7 @@
       <c r="BW39" s="4"/>
     </row>
     <row r="40" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="24"/>
       <c r="C40" s="9"/>
       <c r="D40" s="4"/>
@@ -4935,7 +4970,7 @@
       <c r="BW40" s="4"/>
     </row>
     <row r="42" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -5018,7 +5053,7 @@
       <c r="BW42" s="4"/>
     </row>
     <row r="43" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="24"/>
       <c r="C43" s="4"/>
       <c r="D43" s="9">
@@ -5097,7 +5132,7 @@
       <c r="BW43" s="4"/>
     </row>
     <row r="44" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="24"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9">
@@ -5176,7 +5211,7 @@
       <c r="BW44" s="4"/>
     </row>
     <row r="45" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="24"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9">
@@ -5255,7 +5290,7 @@
       <c r="BW45" s="4"/>
     </row>
     <row r="46" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="24"/>
       <c r="C46" s="9"/>
       <c r="D46" s="4"/>
@@ -5472,11 +5507,11 @@
       <c r="BW46" s="9"/>
     </row>
     <row r="47" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
       <c r="BW47" s="4"/>
     </row>
     <row r="48" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="24" t="s">
         <v>34</v>
       </c>
@@ -5559,7 +5594,7 @@
       <c r="BW48" s="4"/>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="24"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
@@ -5638,7 +5673,7 @@
       <c r="BW49" s="4"/>
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="24"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9">
@@ -5717,7 +5752,7 @@
       <c r="BW50" s="4"/>
     </row>
     <row r="51" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="24"/>
       <c r="C51" s="9" t="s">
         <v>23</v>
@@ -5798,7 +5833,7 @@
       <c r="BW51" s="4"/>
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="24"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4"/>
@@ -6015,7 +6050,7 @@
       <c r="BW52" s="9"/>
     </row>
     <row r="54" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B54" s="24" t="s">
@@ -6098,7 +6133,7 @@
       <c r="BW54" s="4"/>
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="24"/>
       <c r="C55" s="4"/>
       <c r="D55" s="9">
@@ -6177,7 +6212,7 @@
       <c r="BW55" s="4"/>
     </row>
     <row r="56" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
       <c r="B56" s="24"/>
       <c r="C56" s="4"/>
       <c r="D56" s="9">
@@ -6256,7 +6291,7 @@
       <c r="BW56" s="4"/>
     </row>
     <row r="57" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="24"/>
       <c r="C57" s="9" t="s">
         <v>36</v>
@@ -6337,7 +6372,7 @@
       <c r="BW57" s="4"/>
     </row>
     <row r="58" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="24"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4"/>
@@ -6554,11 +6589,11 @@
       <c r="BW58" s="9"/>
     </row>
     <row r="59" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="BW59" s="4"/>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="24" t="s">
         <v>34</v>
       </c>
@@ -6639,7 +6674,7 @@
       <c r="BW60" s="4"/>
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="24"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9">
@@ -6718,7 +6753,7 @@
       <c r="BW61" s="4"/>
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="24"/>
       <c r="C62" s="9" t="s">
         <v>37</v>
@@ -6799,7 +6834,7 @@
       <c r="BW62" s="4"/>
     </row>
     <row r="63" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="24"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9">
@@ -6878,7 +6913,7 @@
       <c r="BW63" s="4"/>
     </row>
     <row r="64" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="24"/>
       <c r="C64" s="9"/>
       <c r="D64" s="4"/>
@@ -7095,7 +7130,7 @@
       <c r="BW64" s="9"/>
     </row>
     <row r="66" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B66" s="24" t="s">
@@ -7178,7 +7213,7 @@
       <c r="BW66" s="4"/>
     </row>
     <row r="67" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="24"/>
       <c r="C67" s="4"/>
       <c r="D67" s="9">
@@ -7257,7 +7292,7 @@
       <c r="BW67" s="4"/>
     </row>
     <row r="68" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="24"/>
       <c r="C68" s="4"/>
       <c r="D68" s="9">
@@ -7336,7 +7371,7 @@
       <c r="BW68" s="4"/>
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="24"/>
       <c r="C69" s="9" t="s">
         <v>39</v>
@@ -7417,7 +7452,7 @@
       <c r="BW69" s="4"/>
     </row>
     <row r="70" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A70" s="23"/>
+      <c r="A70" s="25"/>
       <c r="B70" s="24"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4"/>
@@ -7634,11 +7669,11 @@
       <c r="BW70" s="9"/>
     </row>
     <row r="71" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A71" s="23"/>
+      <c r="A71" s="25"/>
       <c r="BW71" s="4"/>
     </row>
     <row r="72" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="24" t="s">
         <v>34</v>
       </c>
@@ -7719,7 +7754,7 @@
       <c r="BW72" s="4"/>
     </row>
     <row r="73" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="24"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9">
@@ -7798,7 +7833,7 @@
       <c r="BW73" s="4"/>
     </row>
     <row r="74" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="24"/>
       <c r="C74" s="9" t="s">
         <v>40</v>
@@ -7879,7 +7914,7 @@
       <c r="BW74" s="4"/>
     </row>
     <row r="75" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
+      <c r="A75" s="25"/>
       <c r="B75" s="24"/>
       <c r="D75" s="9">
         <v>1</v>
@@ -7957,7 +7992,7 @@
       <c r="BW75" s="4"/>
     </row>
     <row r="76" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
+      <c r="A76" s="25"/>
       <c r="B76" s="24"/>
       <c r="C76" s="9"/>
       <c r="D76" s="4"/>
@@ -8174,7 +8209,7 @@
       <c r="BW76" s="9"/>
     </row>
     <row r="78" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B78" s="24" t="s">
@@ -8257,7 +8292,7 @@
       <c r="BW78" s="4"/>
     </row>
     <row r="79" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="24"/>
       <c r="C79" s="4"/>
       <c r="D79" s="9">
@@ -8336,7 +8371,7 @@
       <c r="BW79" s="4"/>
     </row>
     <row r="80" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A80" s="23"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="24"/>
       <c r="C80" s="4"/>
       <c r="D80" s="9">
@@ -8415,7 +8450,7 @@
       <c r="BW80" s="4"/>
     </row>
     <row r="81" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="24"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9">
@@ -8494,7 +8529,7 @@
       <c r="BW81" s="4"/>
     </row>
     <row r="82" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="24"/>
       <c r="C82" s="9"/>
       <c r="D82" s="4"/>
@@ -8633,7 +8668,7 @@
       <c r="BW82" s="9"/>
     </row>
     <row r="83" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="25"/>
       <c r="AJ83" s="7"/>
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
@@ -8646,7 +8681,7 @@
       <c r="BW83" s="4"/>
     </row>
     <row r="84" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
+      <c r="A84" s="25"/>
       <c r="B84" s="24" t="s">
         <v>57</v>
       </c>
@@ -8727,7 +8762,7 @@
       <c r="BW84" s="4"/>
     </row>
     <row r="85" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="24"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9">
@@ -8806,7 +8841,7 @@
       <c r="BW85" s="4"/>
     </row>
     <row r="86" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="24"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9">
@@ -8885,7 +8920,7 @@
       <c r="BW86" s="4"/>
     </row>
     <row r="87" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="24"/>
       <c r="C87" s="9" t="s">
         <v>41</v>
@@ -8965,7 +9000,7 @@
       <c r="BW87" s="4"/>
     </row>
     <row r="88" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="24"/>
       <c r="C88" s="9"/>
       <c r="D88" s="4"/>
@@ -9115,7 +9150,7 @@
       <c r="AR89" s="7"/>
     </row>
     <row r="90" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B90" s="24" t="s">
@@ -9198,7 +9233,7 @@
       <c r="BW90" s="4"/>
     </row>
     <row r="91" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="24"/>
       <c r="C91" s="4"/>
       <c r="D91" s="9">
@@ -9277,7 +9312,7 @@
       <c r="BW91" s="4"/>
     </row>
     <row r="92" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="24"/>
       <c r="C92" s="4"/>
       <c r="D92" s="9">
@@ -9356,7 +9391,7 @@
       <c r="BW92" s="4"/>
     </row>
     <row r="93" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A93" s="23"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="24"/>
       <c r="C93" s="9" t="s">
         <v>46</v>
@@ -9436,7 +9471,7 @@
       <c r="BW93" s="4"/>
     </row>
     <row r="94" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="24"/>
       <c r="C94" s="9"/>
       <c r="D94" s="4"/>
@@ -9575,7 +9610,7 @@
       <c r="BW94" s="9"/>
     </row>
     <row r="95" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
+      <c r="A95" s="25"/>
       <c r="AJ95" s="7"/>
       <c r="AK95" s="7"/>
       <c r="AL95" s="7"/>
@@ -9588,7 +9623,7 @@
       <c r="BW95" s="4"/>
     </row>
     <row r="96" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="24" t="s">
         <v>57</v>
       </c>
@@ -9669,7 +9704,7 @@
       <c r="BW96" s="4"/>
     </row>
     <row r="97" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="24"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9">
@@ -9748,7 +9783,7 @@
       <c r="BW97" s="4"/>
     </row>
     <row r="98" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="24"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9">
@@ -9827,7 +9862,7 @@
       <c r="BW98" s="4"/>
     </row>
     <row r="99" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="24"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9">
@@ -9906,7 +9941,7 @@
       <c r="BW99" s="4"/>
     </row>
     <row r="100" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="24"/>
       <c r="C100" s="9"/>
       <c r="D100" s="4"/>
@@ -10046,22 +10081,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="BU32:BU35"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="BU12:BU15"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A66:A76"/>
-    <mergeCell ref="B66:B70"/>
-    <mergeCell ref="B72:B76"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A78:A88"/>
     <mergeCell ref="B78:B82"/>
@@ -10074,6 +10093,22 @@
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B32:B35"/>
     <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="B60:B64"/>
+    <mergeCell ref="A66:A76"/>
+    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="BU32:BU35"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="BU12:BU15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10085,7 +10120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AQ66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
@@ -10102,7 +10137,7 @@
       <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -10153,7 +10188,7 @@
       <c r="AQ2" s="6"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="24"/>
       <c r="C3" s="4"/>
       <c r="D3" s="9">
@@ -10200,7 +10235,7 @@
       <c r="AQ3" s="6"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="24"/>
       <c r="C4" s="4"/>
       <c r="D4" s="9">
@@ -10247,7 +10282,7 @@
       <c r="AQ4" s="6"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="24"/>
       <c r="C5" s="4"/>
       <c r="D5" s="9">
@@ -10294,7 +10329,7 @@
       <c r="AQ5" s="6"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="24"/>
       <c r="C6" s="4"/>
       <c r="D6" s="9">
@@ -10341,7 +10376,7 @@
       <c r="AQ6" s="6"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="24"/>
       <c r="C7" s="4"/>
       <c r="D7" s="9">
@@ -10388,7 +10423,7 @@
       <c r="AQ7" s="6"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="4"/>
       <c r="D8" s="9">
@@ -10435,7 +10470,7 @@
       <c r="AQ8" s="6"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="24"/>
       <c r="C9" s="4"/>
       <c r="D9" s="9">
@@ -10482,7 +10517,7 @@
       <c r="AQ9" s="6"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="24"/>
       <c r="C10" s="9" t="s">
         <v>49</v>
@@ -10531,7 +10566,7 @@
       <c r="AQ10" s="6"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="24"/>
       <c r="C11" s="9"/>
       <c r="D11" s="4"/>
@@ -10654,10 +10689,10 @@
       </c>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="24" t="s">
         <v>52</v>
       </c>
@@ -10708,7 +10743,7 @@
       <c r="AQ13" s="6"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="24"/>
       <c r="C14" s="4"/>
       <c r="D14" s="9">
@@ -10755,7 +10790,7 @@
       <c r="AQ14" s="6"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="24"/>
       <c r="C15" s="4"/>
       <c r="D15" s="9">
@@ -10802,7 +10837,7 @@
       <c r="AQ15" s="6"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="24"/>
       <c r="C16" s="4"/>
       <c r="D16" s="9">
@@ -10849,7 +10884,7 @@
       <c r="AQ16" s="6"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="24"/>
       <c r="C17" s="4"/>
       <c r="D17" s="9">
@@ -10896,7 +10931,7 @@
       <c r="AQ17" s="6"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="24"/>
       <c r="C18" s="4"/>
       <c r="D18" s="9">
@@ -10943,7 +10978,7 @@
       <c r="AQ18" s="6"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="24"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9">
@@ -10990,7 +11025,7 @@
       <c r="AQ19" s="6"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="24"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
@@ -11037,7 +11072,7 @@
       <c r="AQ20" s="6"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="24"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -11084,7 +11119,7 @@
       <c r="AQ21" s="6"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="24"/>
       <c r="C22" s="9"/>
       <c r="D22" s="4"/>
@@ -11207,7 +11242,7 @@
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -11258,7 +11293,7 @@
       <c r="AQ24" s="6"/>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="24"/>
       <c r="C25" s="4"/>
       <c r="D25" s="9">
@@ -11305,7 +11340,7 @@
       <c r="AQ25" s="6"/>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="24"/>
       <c r="C26" s="4"/>
       <c r="D26" s="9">
@@ -11352,7 +11387,7 @@
       <c r="AQ26" s="6"/>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="24"/>
       <c r="C27" s="4"/>
       <c r="D27" s="9">
@@ -11399,7 +11434,7 @@
       <c r="AQ27" s="6"/>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="24"/>
       <c r="C28" s="4"/>
       <c r="D28" s="9">
@@ -11446,7 +11481,7 @@
       <c r="AQ28" s="6"/>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="24"/>
       <c r="C29" s="4"/>
       <c r="D29" s="9">
@@ -11493,7 +11528,7 @@
       <c r="AQ29" s="6"/>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="24"/>
       <c r="C30" s="4"/>
       <c r="D30" s="9">
@@ -11540,7 +11575,7 @@
       <c r="AQ30" s="6"/>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="24"/>
       <c r="C31" s="4"/>
       <c r="D31" s="9">
@@ -11587,7 +11622,7 @@
       <c r="AQ31" s="6"/>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="24"/>
       <c r="C32" s="9" t="s">
         <v>49</v>
@@ -11636,7 +11671,7 @@
       <c r="AQ32" s="6"/>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="24"/>
       <c r="C33" s="9"/>
       <c r="D33" s="4"/>
@@ -11759,10 +11794,10 @@
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="24" t="s">
         <v>52</v>
       </c>
@@ -11813,7 +11848,7 @@
       <c r="AQ35" s="6"/>
     </row>
     <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="23"/>
+      <c r="A36" s="25"/>
       <c r="B36" s="24"/>
       <c r="C36" s="4"/>
       <c r="D36" s="9">
@@ -11860,7 +11895,7 @@
       <c r="AQ36" s="6"/>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="24"/>
       <c r="C37" s="4"/>
       <c r="D37" s="9">
@@ -11907,7 +11942,7 @@
       <c r="AQ37" s="6"/>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="24"/>
       <c r="C38" s="4"/>
       <c r="D38" s="9">
@@ -11954,7 +11989,7 @@
       <c r="AQ38" s="6"/>
     </row>
     <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="24"/>
       <c r="C39" s="4"/>
       <c r="D39" s="9">
@@ -12001,7 +12036,7 @@
       <c r="AQ39" s="6"/>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="24"/>
       <c r="C40" s="4"/>
       <c r="D40" s="9">
@@ -12048,7 +12083,7 @@
       <c r="AQ40" s="6"/>
     </row>
     <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="24"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9">
@@ -12095,7 +12130,7 @@
       <c r="AQ41" s="6"/>
     </row>
     <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="24"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9">
@@ -12142,7 +12177,7 @@
       <c r="AQ42" s="6"/>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="24"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9">
@@ -12189,7 +12224,7 @@
       <c r="AQ43" s="6"/>
     </row>
     <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="23"/>
+      <c r="A44" s="25"/>
       <c r="B44" s="24"/>
       <c r="C44" s="9"/>
       <c r="D44" s="4"/>
@@ -12312,7 +12347,7 @@
       </c>
     </row>
     <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="24" t="s">
@@ -12363,7 +12398,7 @@
       <c r="AQ46" s="6"/>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="24"/>
       <c r="C47" s="4"/>
       <c r="D47" s="9">
@@ -12410,7 +12445,7 @@
       <c r="AQ47" s="6"/>
     </row>
     <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="24"/>
       <c r="C48" s="4"/>
       <c r="D48" s="9">
@@ -12457,7 +12492,7 @@
       <c r="AQ48" s="6"/>
     </row>
     <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="24"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9">
@@ -12504,7 +12539,7 @@
       <c r="AQ49" s="6"/>
     </row>
     <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="24"/>
       <c r="C50" s="4"/>
       <c r="D50" s="9">
@@ -12551,7 +12586,7 @@
       <c r="AQ50" s="6"/>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="24"/>
       <c r="C51" s="4"/>
       <c r="D51" s="9">
@@ -12598,7 +12633,7 @@
       <c r="AQ51" s="6"/>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="24"/>
       <c r="C52" s="4"/>
       <c r="D52" s="9">
@@ -12645,7 +12680,7 @@
       <c r="AQ52" s="6"/>
     </row>
     <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="24"/>
       <c r="C53" s="4"/>
       <c r="D53" s="9">
@@ -12692,7 +12727,7 @@
       <c r="AQ53" s="6"/>
     </row>
     <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="24"/>
       <c r="C54" s="9" t="s">
         <v>49</v>
@@ -12741,7 +12776,7 @@
       <c r="AQ54" s="6"/>
     </row>
     <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="24"/>
       <c r="C55" s="9"/>
       <c r="D55" s="4"/>
@@ -12864,10 +12899,10 @@
       </c>
     </row>
     <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="23"/>
+      <c r="A56" s="25"/>
     </row>
     <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="23"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="24" t="s">
         <v>52</v>
       </c>
@@ -12918,7 +12953,7 @@
       <c r="AQ57" s="6"/>
     </row>
     <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="24"/>
       <c r="C58" s="4"/>
       <c r="D58" s="9">
@@ -12965,7 +13000,7 @@
       <c r="AQ58" s="6"/>
     </row>
     <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="24"/>
       <c r="C59" s="4"/>
       <c r="D59" s="9">
@@ -13012,7 +13047,7 @@
       <c r="AQ59" s="6"/>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="24"/>
       <c r="C60" s="4"/>
       <c r="D60" s="9">
@@ -13059,7 +13094,7 @@
       <c r="AQ60" s="6"/>
     </row>
     <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="24"/>
       <c r="C61" s="4"/>
       <c r="D61" s="9">
@@ -13106,7 +13141,7 @@
       <c r="AQ61" s="6"/>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="24"/>
       <c r="C62" s="4"/>
       <c r="D62" s="9">
@@ -13153,7 +13188,7 @@
       <c r="AQ62" s="6"/>
     </row>
     <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="24"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9">
@@ -13200,7 +13235,7 @@
       <c r="AQ63" s="6"/>
     </row>
     <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="24"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9">
@@ -13247,7 +13282,7 @@
       <c r="AQ64" s="6"/>
     </row>
     <row r="65" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A65" s="23"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="24"/>
       <c r="C65" s="9"/>
       <c r="D65" s="9">
@@ -13294,7 +13329,7 @@
       <c r="AQ65" s="6"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="23"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="24"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4"/>
@@ -13432,4 +13467,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F805FC-1842-4CC7-917A-96D6B0386DB1}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <f>68*8*2*2</f>
+        <v>2176</v>
+      </c>
+      <c r="C2">
+        <f>B2/2</f>
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>5076</v>
+      </c>
+      <c r="C3">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4">
+        <v>2106</v>
+      </c>
+      <c r="C4">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>